--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43125394-4C23-44F5-9A8A-52B8A6C14112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC61EA-FB6F-4667-8EDE-EA8C17227333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>última revisión:</t>
+    <t>Alumnos:</t>
   </si>
   <si>
-    <t>Alumnos:</t>
+    <t>Ojeda, Paula</t>
+  </si>
+  <si>
+    <t>Fechas</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Última revisión:</t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -114,15 +123,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,31 +522,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16">
+        <f ca="1">+NOW()</f>
+        <v>45902.390767592595</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3">
-        <f ca="1">+TODAY()</f>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12">
+        <v>45894</v>
+      </c>
+      <c r="E5" s="12">
+        <f>+D5+7</f>
         <v>45901</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F5" s="12">
+        <f>+E5+7</f>
+        <v>45908</v>
+      </c>
+      <c r="G5" s="12">
+        <f>+F5+7</f>
+        <v>45915</v>
+      </c>
+      <c r="H5" s="12">
+        <f>+G5+7</f>
+        <v>45922</v>
+      </c>
+      <c r="I5" s="12">
+        <f>+H5+7</f>
+        <v>45929</v>
+      </c>
+      <c r="J5" s="12">
+        <f>+I5+7</f>
+        <v>45936</v>
+      </c>
+      <c r="K5" s="13">
+        <f>+J5+7</f>
+        <v>45943</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC61EA-FB6F-4667-8EDE-EA8C17227333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B2104-0512-4962-8894-09B9EB3BAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Fechas</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Última revisión:</t>
   </si>
   <si>
-    <t>Última revisión:</t>
+    <t>Bidal, Mateo</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -212,29 +215,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,7 +528,7 @@
   <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,181 +536,185 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="16">
         <f ca="1">+NOW()</f>
-        <v>45902.390767592595</v>
+        <v>45902.424196412037</v>
       </c>
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12">
+      <c r="B5" s="15"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
         <v>45894</v>
       </c>
-      <c r="E5" s="12">
-        <f>+D5+7</f>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:K5" si="0">+D5+7</f>
         <v>45901</v>
       </c>
-      <c r="F5" s="12">
-        <f>+E5+7</f>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
         <v>45908</v>
       </c>
-      <c r="G5" s="12">
-        <f>+F5+7</f>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
         <v>45915</v>
       </c>
-      <c r="H5" s="12">
-        <f>+G5+7</f>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
         <v>45922</v>
       </c>
-      <c r="I5" s="12">
-        <f>+H5+7</f>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
         <v>45929</v>
       </c>
-      <c r="J5" s="12">
-        <f>+I5+7</f>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
         <v>45936</v>
       </c>
-      <c r="K5" s="13">
-        <f>+J5+7</f>
+      <c r="K5" s="9">
+        <f t="shared" si="0"/>
         <v>45943</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9B2104-0512-4962-8894-09B9EB3BAF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC982F-58A6-4C51-8883-92F762BF4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Enrique, Matías</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +544,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="16">
         <f ca="1">+NOW()</f>
-        <v>45902.424196412037</v>
+        <v>45902.468455439812</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -633,9 +636,13 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC982F-58A6-4C51-8883-92F762BF4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73E234-39A5-4C30-96DD-C1E95CA6887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Enrique, Matías</t>
+  </si>
+  <si>
+    <t>Martini, Nicolas Valentín</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Enviado fuera de término</t>
+  </si>
+  <si>
+    <t>Recibido (sin calificar aún)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +95,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -209,11 +227,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -246,6 +344,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,122 +646,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N14"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="16">
+      <c r="C3" s="2"/>
+      <c r="D3" s="16">
         <f ca="1">+NOW()</f>
-        <v>45902.468455439812</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>45902.613044907404</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+    </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="H4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
         <v>45894</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:K5" si="0">+D5+7</f>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:K7" si="0">+D7+7</f>
         <v>45901</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>45908</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>45915</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>45922</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>45929</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>45936</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
         <v>45943</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -652,9 +763,13 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -664,9 +779,13 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -676,9 +795,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -723,11 +846,36 @@
       <c r="J14" s="10"/>
       <c r="K14" s="11"/>
     </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E73E234-39A5-4C30-96DD-C1E95CA6887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459830CA-402B-42DC-BF40-89D81A7A5826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -67,6 +70,12 @@
   </si>
   <si>
     <t>Recibido (sin calificar aún)</t>
+  </si>
+  <si>
+    <t>Marello, Franco</t>
+  </si>
+  <si>
+    <t>Spinetta, Eros</t>
   </si>
 </sst>
 </file>
@@ -328,24 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,6 +345,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,9 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,68 +658,71 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="16">
+      <c r="D3" s="23">
         <f ca="1">+NOW()</f>
-        <v>45902.613044907404</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+        <v>45902.960332291666</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>45894</v>
@@ -786,7 +798,9 @@
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -802,7 +816,9 @@
       <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -811,10 +827,16 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -823,10 +845,16 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -850,7 +878,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459830CA-402B-42DC-BF40-89D81A7A5826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D9A86-665F-45BF-BD04-6870F103ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Spinetta, Eros</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,8 +686,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="23">
-        <f ca="1">+NOW()</f>
-        <v>45902.960332291666</v>
+        <v>45903.044088773146</v>
       </c>
       <c r="E3" s="24"/>
       <c r="H3" s="12"/>
@@ -762,10 +767,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -780,7 +785,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -796,10 +801,10 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -814,10 +819,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -832,10 +837,10 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -850,10 +855,10 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D9A86-665F-45BF-BD04-6870F103ACA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F5856-F3F2-41C4-8F8F-AD2220C074BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Gonzalez, Araceli</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +871,16 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F5856-F3F2-41C4-8F8F-AD2220C074BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F1F2E-FCDD-4F2F-A8DD-860E7A168BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="11355" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Gonzalez, Araceli</t>
+  </si>
+  <si>
+    <t>Solis, Melina</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,16 +347,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,7 +384,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -667,7 +684,7 @@
   <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,61 +693,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="23">
-        <v>45903.044088773146</v>
-      </c>
-      <c r="E3" s="24"/>
+      <c r="D3" s="21">
+        <v>45903.520138888889</v>
+      </c>
+      <c r="E3" s="22"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>45894</v>
@@ -889,10 +906,16 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -919,6 +942,16 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8:K16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F1F2E-FCDD-4F2F-A8DD-860E7A168BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881595F0-6B6E-4976-9537-A549B013EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="11355" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="5190" windowWidth="11355" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Solis, Melina</t>
+  </si>
+  <si>
+    <t>Vilotta, Lautaro</t>
+  </si>
+  <si>
+    <t>Orellana, Demian</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -681,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -706,7 +722,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="21">
-        <v>45903.520138888889</v>
+        <v>45903.635416666664</v>
       </c>
       <c r="E3" s="22"/>
       <c r="H3" s="12"/>
@@ -924,16 +940,40 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -943,11 +983,16 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:K16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="D17:K17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\FCE\Optativa\UNL-Programacion-en-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881595F0-6B6E-4976-9537-A549B013EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A480A7-BFFB-4795-ABAD-10B3A3A26C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="5190" windowWidth="11355" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -91,6 +94,27 @@
   </si>
   <si>
     <t>Orellana, Demian</t>
+  </si>
+  <si>
+    <t>Bressan, Diane</t>
+  </si>
+  <si>
+    <t>Bona, Leandro Nahuel</t>
+  </si>
+  <si>
+    <t>Pereyra, Franco Andrés</t>
+  </si>
+  <si>
+    <t>Tisocco, Augusto</t>
+  </si>
+  <si>
+    <t>Gonzalez, Daiana</t>
+  </si>
+  <si>
+    <t>Mantaras, Justo</t>
+  </si>
+  <si>
+    <t>Bonahora, Leandro Nahuel</t>
   </si>
 </sst>
 </file>
@@ -390,7 +414,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -697,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +957,9 @@
       <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -974,6 +1110,156 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -982,17 +1268,72 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="H2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:K16">
+  <conditionalFormatting sqref="D8:K16 F18:K18">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:K17">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:K19">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:K20">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:K21">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:K22">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:K23">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:K24">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:K25">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:K26">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K17">
+  <conditionalFormatting sqref="D18:E18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/Listado de prácticas.xlsx
+++ b/Listado de prácticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Optativa-FCE\UNL-Programacion-en-R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A480A7-BFFB-4795-ABAD-10B3A3A26C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587CA0E-AC2D-4C9E-A430-4114A4495A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Alumnos:</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Bonahora, Leandro Nahuel</t>
+  </si>
+  <si>
+    <t>Silvestri, Julian</t>
+  </si>
+  <si>
+    <t>Ríos, Joaquín</t>
+  </si>
+  <si>
+    <t>Pontelli, Lara</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -831,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +905,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="21">
-        <v>45903.635416666664</v>
+        <v>45903.989892245372</v>
       </c>
       <c r="E3" s="22"/>
       <c r="H3" s="12"/>
@@ -1238,10 +1287,16 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1250,16 +1305,40 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1269,71 +1348,91 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:K16 F18:K18">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:K17">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:K19">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:K20">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="D21:K21">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:K17">
+  <conditionalFormatting sqref="D22:K22">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:K19">
+  <conditionalFormatting sqref="F23:K23">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:K20">
+  <conditionalFormatting sqref="F24:K24">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
+  <conditionalFormatting sqref="F25:K25">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:K22">
+  <conditionalFormatting sqref="F26:K26">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:K23">
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:K24">
+  <conditionalFormatting sqref="D24:E24">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:K25">
+  <conditionalFormatting sqref="D18:E18">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:K26">
+  <conditionalFormatting sqref="F27:K27">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
+  <conditionalFormatting sqref="D27:E27">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
+  <conditionalFormatting sqref="D26:E26">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
+  <conditionalFormatting sqref="D25:E25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
